--- a/冲刺时间安排.xlsx
+++ b/冲刺时间安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59827\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Github\Teamwork\AIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B5063-C6B0-4A1B-903C-1B1C5DC84E8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103010C-6353-418F-A517-DBD9F8C8D0BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
+    <workbookView xWindow="-5430" yWindow="1746" windowWidth="11520" windowHeight="4404" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,190 @@
   </si>
   <si>
     <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卜君健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宝航</t>
+  </si>
+  <si>
+    <t>彭伟智</t>
+  </si>
+  <si>
+    <t>毛煜洲</t>
+  </si>
+  <si>
+    <t>张婧</t>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭伟智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面的个人部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面的聊天部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索好友界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友聊天界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友验证框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器与数据库交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器接收消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器处理消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器回传消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端点对点连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端对象封装发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端用户动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端好友管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端群管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端文件互传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端机器人对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库视图设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库触发器设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库函数设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面个人信息逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面聊天逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友聊天逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索好友逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友验证逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器聊天交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器好友交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,72 +363,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thick">
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="medium">
-        <color indexed="64"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -253,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,7 +443,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -275,19 +461,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -297,6 +471,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,730 +865,1026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D156C4-EABB-489A-BB42-D32126386828}">
-  <dimension ref="B2:F78"/>
+  <dimension ref="B3:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6484375" style="2"/>
+    <col min="2" max="2" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.84765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="16.796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.34765625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.6484375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>6.24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="4" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="4" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="4" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="11">
+      <c r="F8" s="10"/>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
         <v>6.25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4" t="s">
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="4" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="11">
+      <c r="F13" s="10"/>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13">
         <v>6.26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="4" t="s">
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="4" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="4" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
-      <c r="C19" s="11">
+      <c r="F18" s="10"/>
+      <c r="G18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13">
         <v>6.27</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4" t="s">
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="4" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="11">
+      <c r="F23" s="10"/>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13">
         <v>6.28</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4" t="s">
+      <c r="G24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="4" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B28" s="10"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="13">
         <v>6.29</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4" t="s">
+      <c r="G29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="4" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="4" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10">
+      <c r="F33" s="10"/>
+      <c r="G33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B34" s="12"/>
+      <c r="C34" s="16">
         <v>6.3</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="4" t="s">
+      <c r="G34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B35" s="12"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="4" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B36" s="12"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="4" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B37" s="12"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="4" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B38" s="12"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9"/>
-      <c r="C39" s="11">
+      <c r="F38" s="10"/>
+      <c r="G38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13">
         <v>7.1</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="4" t="s">
+      <c r="G39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="4" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B41" s="12"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="9"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="4" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="4" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B43" s="12"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="9"/>
-      <c r="C44" s="11">
+      <c r="F43" s="10"/>
+      <c r="G43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13">
         <v>7.2</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="4" t="s">
+      <c r="G44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B45" s="12"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="9"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="4" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="9"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="4" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B47" s="12"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="9"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="4" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B48" s="12"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9"/>
-      <c r="C49" s="11">
+      <c r="F48" s="10"/>
+      <c r="G48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13">
         <v>7.3</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="4" t="s">
+      <c r="G49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="4" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="9"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="4" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="4" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B53" s="10"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="9" t="s">
+      <c r="F53" s="10"/>
+      <c r="G53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="13">
         <v>7.4</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="4" t="s">
+      <c r="G54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="9"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="4" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B56" s="12"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="4" t="s">
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B57" s="12"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="2:6" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="9"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="4" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B58" s="10"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B4:B28"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="E15:E17"/>
     <mergeCell ref="E54:E58"/>
     <mergeCell ref="B29:B53"/>
     <mergeCell ref="B54:B58"/>
@@ -1411,6 +1899,28 @@
     <mergeCell ref="E45:E47"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="B4:B28"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/冲刺时间安排.xlsx
+++ b/冲刺时间安排.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Github\Teamwork\AIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103010C-6353-418F-A517-DBD9F8C8D0BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A53473-1B91-41E4-8496-A6FEE76C4E8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5430" yWindow="1746" windowWidth="11520" windowHeight="4404" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,54 +155,10 @@
     <t>张婧</t>
   </si>
   <si>
-    <t>登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彭伟智</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面的个人部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面的聊天部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索好友界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友聊天界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群聊界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件传输界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友验证框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器与数据库交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,34 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户端点对点连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端对象封装发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端用户动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端好友管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端群管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端文件互传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端机器人对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库视图设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,55 +191,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面个人信息逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面聊天逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友聊天逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索好友逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群聊逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件传输逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友验证逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器聊天交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器好友交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器</t>
+    <t>总结文档-数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面，登录逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面，注册逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面的个人部分，主界面个人信息逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面的聊天部分，主界面聊天逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料界面，个人资料逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索好友界面，搜索好友逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友聊天界面，好友聊天逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊界面，群聊逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输界面，文件传输逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友验证框，好友验证逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结文档-前端1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结文档-前端2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结文档-后端1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结文档-后端2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器传出交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器传入交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并修改界面逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并修改数据库逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并修改服务器逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并修改数据传输逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并修改服务器数据库交互逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料界面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索好友界面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友聊天界面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊界面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输界面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友验证框完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-聊天表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-语音通话-API与服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-视频通话-API与服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-机器人聊天-API与服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-语音通话-客户端实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-视频通话-客户端实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值功能开发-机器人聊天-客户端实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,9 +339,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,13 +481,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,15 +497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +522,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -865,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D156C4-EABB-489A-BB42-D32126386828}">
-  <dimension ref="B3:I78"/>
+  <dimension ref="B3:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
@@ -880,7 +888,7 @@
     <col min="5" max="5" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.34765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.6484375" style="2"/>
   </cols>
   <sheetData>
@@ -906,7 +914,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="13">
@@ -918,72 +926,68 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="14"/>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="14"/>
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="15"/>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -991,17 +995,17 @@
       <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="13">
         <v>6.25</v>
       </c>
@@ -1011,68 +1015,65 @@
       <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="14"/>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>59</v>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="14"/>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>60</v>
+      <c r="H11" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="14"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>61</v>
+      <c r="H12" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -1080,16 +1081,16 @@
       <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>62</v>
+      <c r="H13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="13">
         <v>6.26</v>
       </c>
@@ -1099,69 +1100,65 @@
       <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2" t="s">
-        <v>63</v>
+      <c r="H14" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="14"/>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>39</v>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="14"/>
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>40</v>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="14"/>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>41</v>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="15"/>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -1169,17 +1166,16 @@
       <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>42</v>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="13">
         <v>6.27</v>
       </c>
@@ -1189,65 +1185,65 @@
       <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>43</v>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="14"/>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>65</v>
+      <c r="H20" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>64</v>
+      <c r="H21" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="14"/>
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>66</v>
+      <c r="H22" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="15"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
@@ -1255,160 +1251,173 @@
       <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2" t="s">
-        <v>67</v>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="13">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
-        <v>68</v>
+      <c r="H24" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="14"/>
       <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="14"/>
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="15"/>
       <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="13">
-        <v>6.29</v>
+        <v>7.1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="14"/>
       <c r="D30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="H30" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="14"/>
       <c r="D31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="14"/>
       <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="15"/>
       <c r="D33" s="6" t="s">
         <v>13</v>
@@ -1416,18 +1425,19 @@
       <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B34" s="12"/>
-      <c r="C34" s="16">
-        <v>6.3</v>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13">
+        <v>7.2</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>16</v>
@@ -1435,84 +1445,89 @@
       <c r="E34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="H34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B35" s="12"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="H35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B36" s="12"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="H36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B37" s="12"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="H37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B38" s="12"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="H38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="13">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>16</v>
@@ -1520,308 +1535,215 @@
       <c r="E39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="H39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="14"/>
       <c r="D40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="H40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="14"/>
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="H41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="14"/>
       <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="H42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="15"/>
       <c r="D43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="H43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B44" s="12"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="13">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="11" t="s">
+      <c r="E44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="H44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="14"/>
       <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="H45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="14"/>
       <c r="D46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="H46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="14"/>
       <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="15"/>
       <c r="D48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13">
-        <v>7.3</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B49" s="11"/>
+      <c r="F49" s="1"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B50" s="11"/>
+      <c r="F50" s="1"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B51" s="12"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B51" s="11"/>
+      <c r="F51" s="1"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B52" s="11"/>
+      <c r="F52" s="1"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B53" s="10"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B53" s="12"/>
+      <c r="F53" s="1"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="13">
-        <v>7.4</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="4"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="4"/>
+      <c r="B55" s="11"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="4"/>
+      <c r="B56" s="11"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B57" s="12"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="4"/>
+      <c r="B57" s="11"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B58" s="10"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="4"/>
+      <c r="B58" s="12"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F59" s="1"/>
@@ -1853,56 +1775,19 @@
     <row r="68" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F78" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="C29:C33"/>
+  <mergeCells count="30">
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E25:E27"/>
     <mergeCell ref="B4:B28"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="E5:E7"/>
@@ -1910,17 +1795,18 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/冲刺时间安排.xlsx
+++ b/冲刺时间安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59827\Documents\GitHub\AIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEBF48-A211-4FD4-8FD5-611753D46D24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54DA68-83F8-407C-856D-19D37EA77610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反思会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次迭代计划会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,6 +328,14 @@
   </si>
   <si>
     <t>功能点分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次冲刺反思会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次冲刺反思会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,9 +459,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,6 +467,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D156C4-EABB-489A-BB42-D32126386828}">
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +869,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
@@ -876,804 +883,804 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10">
-        <v>6.24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14">
+        <v>6.25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
-        <v>6.25</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14">
+        <v>6.26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10">
-        <v>6.26</v>
-      </c>
-      <c r="D14" s="11" t="s">
+    <row r="15" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="E15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="16" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14">
+        <v>6.27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10">
-        <v>6.27</v>
-      </c>
-      <c r="D19" s="11" t="s">
+    <row r="20" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14">
         <v>6.29</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="H30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="10">
-        <v>7.1</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="8" t="s">
-        <v>13</v>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14">
         <v>7.3</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="E40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="10">
+      <c r="C44" s="14">
         <v>7.4</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="4"/>
     </row>
@@ -1767,14 +1774,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="B29:B43"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B4:B28"/>
@@ -1786,17 +1796,14 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="C24:C28"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E40:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/冲刺时间安排.xlsx
+++ b/冲刺时间安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59827\Documents\GitHub\AIDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Github\Teamwork\AIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54DA68-83F8-407C-856D-19D37EA77610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C91ADF-2F4F-4C33-AF4E-B5622102A4EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{274D176F-3D04-42F5-97E4-081AE343A1EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +468,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,7 +498,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -848,27 +851,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D156C4-EABB-489A-BB42-D32126386828}">
-  <dimension ref="B2:I68"/>
+  <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="11.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6484375" style="2"/>
+    <col min="2" max="2" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="12.6484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.046875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.6484375" style="2"/>
+    <col min="10" max="10" width="38.296875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.6484375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
@@ -882,19 +887,22 @@
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>6.24</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -903,88 +911,97 @@
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15">
+        <v>6.24</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+    </row>
+    <row r="8" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14">
+    </row>
+    <row r="9" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15">
         <v>6.25</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -993,86 +1010,95 @@
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>6.25</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+    </row>
+    <row r="11" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+    <row r="13" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14">
+    <row r="14" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15">
         <v>6.26</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1081,83 +1107,95 @@
       <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>6.26</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+    <row r="15" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+    <row r="16" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+    <row r="17" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+    <row r="18" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14">
+    <row r="19" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15">
         <v>6.27</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1166,83 +1204,95 @@
       <c r="E19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
+        <v>6.27</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+    <row r="20" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+    <row r="21" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+    <row r="22" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+    <row r="23" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14">
+    <row r="24" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15">
         <v>6.29</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1251,85 +1301,97 @@
       <c r="E24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="15">
+        <v>6.29</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+    <row r="25" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+    <row r="26" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+    <row r="27" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+    <row r="28" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <v>7.1</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -1338,87 +1400,97 @@
       <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="15">
+        <v>7.1</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+    <row r="30" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+    </row>
+    <row r="31" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+    </row>
+    <row r="32" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="6" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+    </row>
+    <row r="33" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14">
+    </row>
+    <row r="34" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15">
         <v>7.2</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -1427,88 +1499,95 @@
       <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+    </row>
+    <row r="35" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+    </row>
+    <row r="36" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="6" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+    </row>
+    <row r="37" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="6" t="s">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="J37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="J38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14">
+    </row>
+    <row r="39" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15">
         <v>7.3</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -1517,274 +1596,294 @@
       <c r="E39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="J39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
+    </row>
+    <row r="40" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
+    </row>
+    <row r="41" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="6" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
+    </row>
+    <row r="42" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="6" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
+    </row>
+    <row r="43" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="13" t="s">
+    </row>
+    <row r="44" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="15">
         <v>7.4</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="J44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
+    </row>
+    <row r="45" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="6" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="6" t="s">
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="6" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:9" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="J48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B49" s="5"/>
       <c r="F49" s="1"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B50" s="5"/>
       <c r="F50" s="1"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B51" s="5"/>
       <c r="F51" s="1"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B52" s="5"/>
       <c r="F52" s="1"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B53" s="5"/>
       <c r="F53" s="1"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B54" s="5"/>
       <c r="F54" s="1"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B55" s="5"/>
       <c r="F55" s="1"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B56" s="5"/>
       <c r="F56" s="1"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B57" s="5"/>
       <c r="F57" s="1"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B58" s="5"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.5">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.5">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.5">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.5">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.5">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.5">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F68" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="E20:E22"/>
+  <mergeCells count="42">
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="G4:G28"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="G29:G43"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H39:H43"/>
     <mergeCell ref="B29:B43"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B4:B28"/>
@@ -1801,9 +1900,17 @@
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C44:C48"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
